--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.248835333333334</v>
+        <v>1.826566</v>
       </c>
       <c r="N2">
-        <v>6.746506</v>
+        <v>5.479698</v>
       </c>
       <c r="O2">
-        <v>0.03590294220158829</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P2">
-        <v>0.03590294220158827</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q2">
-        <v>2.000771554995778</v>
+        <v>1.947347067894667</v>
       </c>
       <c r="R2">
-        <v>18.006943994962</v>
+        <v>17.526123611052</v>
       </c>
       <c r="S2">
-        <v>0.003348578725014394</v>
+        <v>0.002918686686057864</v>
       </c>
       <c r="T2">
-        <v>0.003348578725014392</v>
+        <v>0.002918686686057865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.29005966666666</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N3">
         <v>132.870179</v>
       </c>
       <c r="O3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P3">
-        <v>0.7070964373190638</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q3">
-        <v>39.40452652830922</v>
+        <v>47.21872509877179</v>
       </c>
       <c r="R3">
-        <v>354.6407387547829</v>
+        <v>424.968525888946</v>
       </c>
       <c r="S3">
-        <v>0.06594913790757083</v>
+        <v>0.070771495513334</v>
       </c>
       <c r="T3">
-        <v>0.06594913790757083</v>
+        <v>0.070771495513334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.09762433333333</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N4">
-        <v>48.292873</v>
+        <v>57.326608</v>
       </c>
       <c r="O4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P4">
-        <v>0.2570006204793479</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q4">
-        <v>14.32193295424678</v>
+        <v>20.37243694837689</v>
       </c>
       <c r="R4">
-        <v>128.897396588221</v>
+        <v>183.351932535392</v>
       </c>
       <c r="S4">
-        <v>0.02396981298135983</v>
+        <v>0.03053423884426811</v>
       </c>
       <c r="T4">
-        <v>0.02396981298135983</v>
+        <v>0.03053423884426811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.418580000000001</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>22.25574</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.248835333333334</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N5">
-        <v>6.746506</v>
+        <v>0.350957</v>
       </c>
       <c r="O5">
-        <v>0.03590294220158829</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P5">
-        <v>0.03590294220158827</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q5">
-        <v>16.68316482716001</v>
+        <v>0.1247213048797778</v>
       </c>
       <c r="R5">
-        <v>150.14848344444</v>
+        <v>1.122491743918</v>
       </c>
       <c r="S5">
-        <v>0.02792167384959364</v>
+        <v>0.0001869324775341287</v>
       </c>
       <c r="T5">
-        <v>0.02792167384959363</v>
+        <v>0.0001869324775341287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +794,10 @@
         <v>22.25574</v>
       </c>
       <c r="I6">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J6">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.29005966666666</v>
+        <v>1.826566</v>
       </c>
       <c r="N6">
-        <v>132.870179</v>
+        <v>5.479698</v>
       </c>
       <c r="O6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P6">
-        <v>0.7070964373190638</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q6">
-        <v>328.56935084194</v>
+        <v>13.55052599628</v>
       </c>
       <c r="R6">
-        <v>2957.12415757746</v>
+        <v>121.95473396652</v>
       </c>
       <c r="S6">
-        <v>0.5499080268179002</v>
+        <v>0.02030954854759495</v>
       </c>
       <c r="T6">
-        <v>0.5499080268179002</v>
+        <v>0.02030954854759496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.09762433333333</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N7">
-        <v>48.292873</v>
+        <v>132.870179</v>
       </c>
       <c r="O7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P7">
-        <v>0.2570006204793479</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q7">
-        <v>119.42151392678</v>
+        <v>328.5693508419401</v>
       </c>
       <c r="R7">
-        <v>1074.79362534102</v>
+        <v>2957.124157577461</v>
       </c>
       <c r="S7">
-        <v>0.1998690654341442</v>
+        <v>0.4924602324668498</v>
       </c>
       <c r="T7">
-        <v>0.1998690654341442</v>
+        <v>0.4924602324668498</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.248835333333334</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N8">
-        <v>6.746506</v>
+        <v>57.326608</v>
       </c>
       <c r="O8">
-        <v>0.03590294220158829</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P8">
-        <v>0.03590294220158827</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q8">
-        <v>0.6710816983260001</v>
+        <v>141.76067585888</v>
       </c>
       <c r="R8">
-        <v>6.039735284934</v>
+        <v>1275.84608272992</v>
       </c>
       <c r="S8">
-        <v>0.001123151662242475</v>
+        <v>0.2124711121388342</v>
       </c>
       <c r="T8">
-        <v>0.001123151662242475</v>
+        <v>0.2124711121388342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>44.29005966666666</v>
+        <v>0.1169856666666667</v>
       </c>
       <c r="N9">
-        <v>132.870179</v>
+        <v>0.350957</v>
       </c>
       <c r="O9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="P9">
-        <v>0.7070964373190638</v>
+        <v>0.001790346272028586</v>
       </c>
       <c r="Q9">
-        <v>13.216729575309</v>
+        <v>0.86786752702</v>
       </c>
       <c r="R9">
-        <v>118.950566177781</v>
+        <v>7.81080774318</v>
       </c>
       <c r="S9">
-        <v>0.02212009629967055</v>
+        <v>0.001300761142241467</v>
       </c>
       <c r="T9">
-        <v>0.02212009629967056</v>
+        <v>0.001300761142241467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H10">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I10">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J10">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,60 +1054,60 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.09762433333333</v>
+        <v>1.826566</v>
       </c>
       <c r="N10">
-        <v>48.292873</v>
+        <v>5.479698</v>
       </c>
       <c r="O10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="P10">
-        <v>0.2570006204793479</v>
+        <v>0.02795372904983374</v>
       </c>
       <c r="Q10">
-        <v>4.803740370182999</v>
+        <v>0.7920781687933334</v>
       </c>
       <c r="R10">
-        <v>43.233663331647</v>
+        <v>7.128703519140001</v>
       </c>
       <c r="S10">
-        <v>0.008039749847463969</v>
+        <v>0.001187167939238269</v>
       </c>
       <c r="T10">
-        <v>0.008039749847463971</v>
+        <v>0.001187167939238269</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H11">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I11">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J11">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,60 +1116,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.248835333333334</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="N11">
-        <v>6.746506</v>
+        <v>132.870179</v>
       </c>
       <c r="O11">
-        <v>0.03590294220158829</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="P11">
-        <v>0.03590294220158827</v>
+        <v>0.6778141756295529</v>
       </c>
       <c r="Q11">
-        <v>2.096944497249333</v>
+        <v>19.20608910738556</v>
       </c>
       <c r="R11">
-        <v>18.872500475244</v>
+        <v>172.85480196647</v>
       </c>
       <c r="S11">
-        <v>0.003509537964737778</v>
+        <v>0.028786114962841</v>
       </c>
       <c r="T11">
-        <v>0.003509537964737776</v>
+        <v>0.028786114962841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1178,586 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.29005966666666</v>
+        <v>19.10886933333333</v>
       </c>
       <c r="N12">
-        <v>132.870179</v>
+        <v>57.326608</v>
       </c>
       <c r="O12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="P12">
-        <v>0.7070964373190638</v>
+        <v>0.2924417490485847</v>
       </c>
       <c r="Q12">
-        <v>41.29862045666066</v>
+        <v>8.286433793937778</v>
       </c>
       <c r="R12">
-        <v>371.6875841099459</v>
+        <v>74.57790414544</v>
       </c>
       <c r="S12">
-        <v>0.06911917629392221</v>
+        <v>0.01241971931352422</v>
       </c>
       <c r="T12">
-        <v>0.06911917629392221</v>
+        <v>0.01241971931352422</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4336433333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.30093</v>
+      </c>
+      <c r="I13">
+        <v>0.04246903649677213</v>
+      </c>
+      <c r="J13">
+        <v>0.04246903649677213</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.350957</v>
+      </c>
+      <c r="O13">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P13">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q13">
+        <v>0.05073005444555555</v>
+      </c>
+      <c r="R13">
+        <v>0.45657049001</v>
+      </c>
+      <c r="S13">
+        <v>7.603428116864196E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.603428116864197E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.951285</v>
+      </c>
+      <c r="H14">
+        <v>2.853855</v>
+      </c>
+      <c r="I14">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J14">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.826566</v>
+      </c>
+      <c r="N14">
+        <v>5.479698</v>
+      </c>
+      <c r="O14">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P14">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q14">
+        <v>1.73758483731</v>
+      </c>
+      <c r="R14">
+        <v>15.63826353579</v>
+      </c>
+      <c r="S14">
+        <v>0.002604294742403379</v>
+      </c>
+      <c r="T14">
+        <v>0.00260429474240338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.951285</v>
+      </c>
+      <c r="H15">
+        <v>2.853855</v>
+      </c>
+      <c r="I15">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J15">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N15">
+        <v>132.870179</v>
+      </c>
+      <c r="O15">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P15">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q15">
+        <v>42.13246941000501</v>
+      </c>
+      <c r="R15">
+        <v>379.1922246900451</v>
+      </c>
+      <c r="S15">
+        <v>0.06314820791070895</v>
+      </c>
+      <c r="T15">
+        <v>0.06314820791070895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.951285</v>
+      </c>
+      <c r="H16">
+        <v>2.853855</v>
+      </c>
+      <c r="I16">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J16">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N16">
+        <v>57.326608</v>
+      </c>
+      <c r="O16">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P16">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q16">
+        <v>18.17798076376</v>
+      </c>
+      <c r="R16">
+        <v>163.60182687384</v>
+      </c>
+      <c r="S16">
+        <v>0.02724518464598223</v>
+      </c>
+      <c r="T16">
+        <v>0.02724518464598223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.951285</v>
+      </c>
+      <c r="H17">
+        <v>2.853855</v>
+      </c>
+      <c r="I17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.350957</v>
+      </c>
+      <c r="O17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P17">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q17">
+        <v>0.111286709915</v>
+      </c>
+      <c r="R17">
+        <v>1.001580389235</v>
+      </c>
+      <c r="S17">
+        <v>0.0001667966865892359</v>
+      </c>
+      <c r="T17">
+        <v>0.0001667966865892359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.023536</v>
+      </c>
+      <c r="I18">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J18">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.826566</v>
+      </c>
+      <c r="N18">
+        <v>5.479698</v>
+      </c>
+      <c r="O18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="P18">
+        <v>0.02795372904983374</v>
+      </c>
+      <c r="Q18">
+        <v>0.6231853524586667</v>
+      </c>
+      <c r="R18">
+        <v>5.608668172128</v>
+      </c>
+      <c r="S18">
+        <v>0.000934031134539276</v>
+      </c>
+      <c r="T18">
+        <v>0.0009340311345392761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.023536</v>
+      </c>
+      <c r="I19">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J19">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>44.29005966666667</v>
+      </c>
+      <c r="N19">
+        <v>132.870179</v>
+      </c>
+      <c r="O19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="P19">
+        <v>0.6778141756295529</v>
+      </c>
+      <c r="Q19">
+        <v>15.11082350366045</v>
+      </c>
+      <c r="R19">
+        <v>135.997411532944</v>
+      </c>
+      <c r="S19">
+        <v>0.02264812477581916</v>
+      </c>
+      <c r="T19">
+        <v>0.02264812477581916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.932458</v>
-      </c>
-      <c r="H13">
-        <v>2.797374</v>
-      </c>
-      <c r="I13">
-        <v>0.09775070647503985</v>
-      </c>
-      <c r="J13">
-        <v>0.09775070647503985</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.09762433333333</v>
-      </c>
-      <c r="N13">
-        <v>48.292873</v>
-      </c>
-      <c r="O13">
-        <v>0.2570006204793479</v>
-      </c>
-      <c r="P13">
-        <v>0.2570006204793479</v>
-      </c>
-      <c r="Q13">
-        <v>15.01035859061133</v>
-      </c>
-      <c r="R13">
-        <v>135.093227315502</v>
-      </c>
-      <c r="S13">
-        <v>0.02512199221637985</v>
-      </c>
-      <c r="T13">
-        <v>0.02512199221637985</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.023536</v>
+      </c>
+      <c r="I20">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J20">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>19.10886933333333</v>
+      </c>
+      <c r="N20">
+        <v>57.326608</v>
+      </c>
+      <c r="O20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="P20">
+        <v>0.2924417490485847</v>
+      </c>
+      <c r="Q20">
+        <v>6.519538560654223</v>
+      </c>
+      <c r="R20">
+        <v>58.675847045888</v>
+      </c>
+      <c r="S20">
+        <v>0.009771494105975975</v>
+      </c>
+      <c r="T20">
+        <v>0.009771494105975975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.023536</v>
+      </c>
+      <c r="I21">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J21">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1169856666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.350957</v>
+      </c>
+      <c r="O21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="P21">
+        <v>0.001790346272028586</v>
+      </c>
+      <c r="Q21">
+        <v>0.03991301377244445</v>
+      </c>
+      <c r="R21">
+        <v>0.359217123952</v>
+      </c>
+      <c r="S21">
+        <v>5.982168449511281E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.982168449511281E-05</v>
       </c>
     </row>
   </sheetData>
